--- a/src/test/resources/userlogintesdata.xlsx
+++ b/src/test/resources/userlogintesdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/harsh_mittal_nagarro_com/Documents/Desktop/Harsh_Workspace/SeleniumDemo/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/harsh_mittal_nagarro_com/Documents/Desktop/test_workspace/test/SeleniumDemo/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{737ED46B-795C-4825-A0CB-2BFFA200EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302A1046-1760-4566-9D68-15E05291156C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{737ED46B-795C-4825-A0CB-2BFFA200EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C688ED1B-7FAC-4CD4-A575-F622DA7F18EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5AFFBC2-625A-4CBB-B87F-DA6646C4874D}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>Welcome: Mercury Tours</t>
   </si>
   <si>
-    <t>Login Successfully</t>
+    <t xml:space="preserve">Login Successfully </t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/userlogintesdata.xlsx
+++ b/src/test/resources/userlogintesdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/harsh_mittal_nagarro_com/Documents/Desktop/test_workspace/test/SeleniumDemo/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{737ED46B-795C-4825-A0CB-2BFFA200EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C688ED1B-7FAC-4CD4-A575-F622DA7F18EB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{737ED46B-795C-4825-A0CB-2BFFA200EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BFB7BBB-0CCA-45B3-9E89-4E2D147C00D7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5AFFBC2-625A-4CBB-B87F-DA6646C4874D}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>Welcome: Mercury Tours</t>
   </si>
   <si>
-    <t xml:space="preserve">Login Successfully </t>
+    <t>Login Successfully</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
